--- a/results.xlsx
+++ b/results.xlsx
@@ -9,19 +9,16 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>LFS</t>
   </si>
   <si>
-    <t>BINP</t>
-  </si>
-  <si>
     <t>YAP</t>
   </si>
   <si>
@@ -62,6 +59,15 @@
   </si>
   <si>
     <t>sigma (degree)</t>
+  </si>
+  <si>
+    <t>LYSO-2</t>
+  </si>
+  <si>
+    <t>nornal after supp</t>
+  </si>
+  <si>
+    <t>BINP (step = 665 nm)</t>
   </si>
 </sst>
 </file>
@@ -97,13 +103,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -408,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,36 +427,45 @@
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>7.4111399999999994E-2</v>
@@ -458,15 +474,15 @@
         <v>367352</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>0.103058</v>
@@ -475,12 +491,12 @@
         <v>367352</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>0.200928</v>
@@ -489,12 +505,12 @@
         <v>367352</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>0.175903</v>
@@ -503,12 +519,12 @@
         <v>367352</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>9.5625100000000005E-2</v>
@@ -517,15 +533,15 @@
         <v>367352</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>8.3806199999999997E-2</v>
@@ -534,90 +550,106 @@
         <v>367352</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8.3763699999999996E-2</v>
+      </c>
+      <c r="D12">
+        <v>367352</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>367352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
         <v>7.86742E-2</v>
       </c>
-      <c r="D13">
-        <v>367352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
       <c r="D14">
         <v>367352</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.27242300000000003</v>
-      </c>
-      <c r="D16">
-        <v>367352</v>
-      </c>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.27242300000000003</v>
       </c>
       <c r="D17">
         <v>367352</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18"/>
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>367352</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
         <v>8.1475400000000003E-2</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>367352</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="23">
   <si>
     <t>LFS</t>
   </si>
@@ -61,19 +62,37 @@
     <t>sigma (degree)</t>
   </si>
   <si>
-    <t>LYSO-2</t>
-  </si>
-  <si>
     <t>nornal after supp</t>
   </si>
   <si>
     <t>BINP (step = 665 nm)</t>
+  </si>
+  <si>
+    <t>LFS-1</t>
+  </si>
+  <si>
+    <t>LFS-2</t>
+  </si>
+  <si>
+    <t>LFS-3</t>
+  </si>
+  <si>
+    <t>LFS-4</t>
+  </si>
+  <si>
+    <t>данные не обрабатывались, т.к. видны какие-то артефакты</t>
+  </si>
+  <si>
+    <t>(выбросы в нуль и пилообразные образования)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,14 +122,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -415,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,21 +448,20 @@
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -475,147 +495,503 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4"/>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.103058</v>
-      </c>
-      <c r="D5">
-        <v>367352</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.200928</v>
-      </c>
-      <c r="D6">
-        <v>367352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.175903</v>
-      </c>
-      <c r="D7">
-        <v>367352</v>
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.103058</v>
+      </c>
+      <c r="D18">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.200928</v>
+      </c>
+      <c r="D19">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.175903</v>
+      </c>
+      <c r="D20">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9.5625100000000005E-2</v>
+      </c>
+      <c r="D21">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8.3806199999999997E-2</v>
+      </c>
+      <c r="D23">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8.5997000000000004E-2</v>
+      </c>
+      <c r="D24">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8.3763699999999996E-2</v>
+      </c>
+      <c r="D25">
+        <v>367352</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7.86742E-2</v>
+      </c>
+      <c r="D27">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8.2580000000000001E-2</v>
+      </c>
+      <c r="D28">
+        <v>367353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7.8567899999999996E-2</v>
+      </c>
+      <c r="D29">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.27242300000000003</v>
+      </c>
+      <c r="D31">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.27266699999999999</v>
+      </c>
+      <c r="D32">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.27226699999999998</v>
+      </c>
+      <c r="D33">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1">
+        <v>8.1475400000000003E-2</v>
+      </c>
+      <c r="D35">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.103058</v>
+      </c>
+      <c r="D3">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.200928</v>
+      </c>
+      <c r="D4">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.175903</v>
+      </c>
+      <c r="D5">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9.5625100000000005E-2</v>
+      </c>
+      <c r="D6">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
-        <v>9.5625100000000005E-2</v>
+      <c r="C8" s="6">
+        <v>8.3806199999999997E-2</v>
       </c>
       <c r="D8">
         <v>367352</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8.5997000000000004E-2</v>
+      </c>
+      <c r="D9">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <v>8.3806199999999997E-2</v>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8.3763699999999996E-2</v>
       </c>
       <c r="D10">
         <v>367352</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>7.86742E-2</v>
+      </c>
+      <c r="D12">
+        <v>367352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="D11">
-        <v>367352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1">
-        <v>8.3763699999999996E-2</v>
-      </c>
-      <c r="D12">
-        <v>367352</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="6">
+        <v>8.2580000000000001E-2</v>
+      </c>
+      <c r="D13">
+        <v>367353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>7.86742E-2</v>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6">
+        <v>7.8567899999999996E-2</v>
       </c>
       <c r="D14">
         <v>367352</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>367352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D16"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.27242300000000003</v>
+      </c>
+      <c r="D16">
+        <v>367352</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.27242300000000003</v>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.27266699999999999</v>
       </c>
       <c r="D17">
         <v>367352</v>
@@ -626,20 +1002,26 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.27226699999999998</v>
       </c>
       <c r="D18">
         <v>367352</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="1">
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6">
         <v>8.1475400000000003E-2</v>
       </c>
       <c r="D20">
@@ -647,9 +1029,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:G1"/>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
   <si>
     <t>LFS</t>
   </si>
@@ -127,11 +127,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,15 +453,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -574,7 +574,7 @@
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <v>0.103058</v>
       </c>
       <c r="D18">
@@ -588,7 +588,7 @@
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5">
         <v>0.200928</v>
       </c>
       <c r="D19">
@@ -602,7 +602,7 @@
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5">
         <v>0.175903</v>
       </c>
       <c r="D20">
@@ -616,7 +616,7 @@
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5">
         <v>9.5625100000000005E-2</v>
       </c>
       <c r="D21">
@@ -624,6 +624,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
       <c r="D22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -633,7 +634,7 @@
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="5">
         <v>8.3806199999999997E-2</v>
       </c>
       <c r="D23">
@@ -647,7 +648,7 @@
       <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5">
         <v>8.5997000000000004E-2</v>
       </c>
       <c r="D24">
@@ -661,7 +662,7 @@
       <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="5">
         <v>8.3763699999999996E-2</v>
       </c>
       <c r="D25">
@@ -670,6 +671,7 @@
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="5"/>
       <c r="D26"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -679,7 +681,7 @@
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5">
         <v>7.86742E-2</v>
       </c>
       <c r="D27">
@@ -693,7 +695,7 @@
       <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5">
         <v>8.2580000000000001E-2</v>
       </c>
       <c r="D28">
@@ -707,12 +709,15 @@
       <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <v>7.8567899999999996E-2</v>
       </c>
       <c r="D29">
         <v>367352</v>
       </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -721,7 +726,7 @@
       <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="5">
         <v>0.27242300000000003</v>
       </c>
       <c r="D31">
@@ -735,7 +740,7 @@
       <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="5">
         <v>0.27266699999999999</v>
       </c>
       <c r="D32">
@@ -749,7 +754,7 @@
       <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="5">
         <v>0.27226699999999998</v>
       </c>
       <c r="D33">
@@ -757,6 +762,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
       <c r="D34"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -766,15 +772,29 @@
       <c r="B35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="5">
         <v>8.1475400000000003E-2</v>
       </c>
       <c r="D35">
         <v>367352</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="5"/>
+    </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D37"/>
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="5">
+        <v>7.4083599999999999E-2</v>
+      </c>
+      <c r="D37">
+        <v>367352</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -788,10 +808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="B1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="A1:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,231 +822,76 @@
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.103058</v>
-      </c>
-      <c r="D3">
-        <v>367352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.200928</v>
-      </c>
-      <c r="D4">
-        <v>367352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.175903</v>
-      </c>
-      <c r="D5">
-        <v>367352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6">
-        <v>9.5625100000000005E-2</v>
-      </c>
-      <c r="D6">
-        <v>367352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6">
-        <v>8.3806199999999997E-2</v>
-      </c>
-      <c r="D8">
-        <v>367352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6">
-        <v>8.5997000000000004E-2</v>
-      </c>
-      <c r="D9">
-        <v>367352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6">
-        <v>8.3763699999999996E-2</v>
-      </c>
-      <c r="D10">
-        <v>367352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6">
-        <v>7.86742E-2</v>
-      </c>
-      <c r="D12">
-        <v>367352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6">
-        <v>8.2580000000000001E-2</v>
-      </c>
-      <c r="D13">
-        <v>367353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6">
-        <v>7.8567899999999996E-2</v>
-      </c>
-      <c r="D14">
-        <v>367352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="6"/>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.27242300000000003</v>
-      </c>
-      <c r="D16">
-        <v>367352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.27266699999999999</v>
-      </c>
-      <c r="D17">
-        <v>367352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.27226699999999998</v>
-      </c>
-      <c r="D18">
-        <v>367352</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="6">
-        <v>8.1475400000000003E-2</v>
-      </c>
-      <c r="D20">
-        <v>367352</v>
-      </c>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
